--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2734230.909544456</v>
+        <v>2727213.894652746</v>
       </c>
     </row>
     <row r="7">
@@ -661,22 +661,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>207.962011015317</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.32476976423373</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>9.790440613649634</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>5.983388191319379</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -913,10 +913,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>145.195981397418</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>137.6226750441172</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.60408762095413</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>58.69009380754687</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>270.7773459850733</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.52687838733131</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.94614978640932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,16 +1533,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>135.2062270202404</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>250.0068403603052</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>116.8645225501836</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>183.6656929918794</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>88.31147233188392</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>30.56319731578929</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,16 +2484,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>25.30554567080458</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>76.91084370176748</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>112.047702408335</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>40.11009662713845</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>119.8572990003992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>162.5660864094512</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>80.67622280824484</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>44.74041742066716</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>146.1854691670921</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>207.4205887801236</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>113.8271861596461</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>283.2741843940248</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1527.841322636248</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C2" t="n">
-        <v>1527.841322636248</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D2" t="n">
-        <v>1169.575624029498</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2657.42710135738</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2481.24961367155</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2481.24961367155</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2481.24961367155</v>
       </c>
       <c r="V2" t="n">
-        <v>2267.209817970484</v>
+        <v>2150.18672632798</v>
       </c>
       <c r="W2" t="n">
-        <v>1914.44116270037</v>
+        <v>2150.18672632798</v>
       </c>
       <c r="X2" t="n">
-        <v>1914.44116270037</v>
+        <v>2150.18672632798</v>
       </c>
       <c r="Y2" t="n">
-        <v>1914.44116270037</v>
+        <v>2150.18672632798</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>63.8323157735459</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>913.7382812066351</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C5" t="n">
-        <v>913.7382812066351</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D5" t="n">
-        <v>555.4725825998845</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2374.308995860253</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2374.308995860253</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2043.246108516683</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>1690.477453246569</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1690.477453246569</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1300.338121270757</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="6">
@@ -4652,10 +4652,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>500.820796875036</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D7" t="n">
-        <v>350.7041574627002</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>231.7461491374204</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1620.08070321196</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1251.118186271549</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177352</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4819,37 +4819,37 @@
         <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="X8" t="n">
-        <v>1620.08070321196</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1620.08070321196</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.942782082032</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406182</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="W10" t="n">
-        <v>290.5651556036576</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="X10" t="n">
-        <v>290.5651556036576</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.942782082032</v>
+        <v>713.4553696737762</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,25 +5059,25 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.598437470156</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>530.7956248556233</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>530.7956248556233</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>380.6789854432875</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>380.6789854432875</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>233.7890379453771</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>933.2366688293931</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
-        <v>933.2366688293931</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X13" t="n">
-        <v>933.2366688293931</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y13" t="n">
-        <v>712.444089685863</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5266,19 +5266,19 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514085</v>
@@ -5302,7 +5302,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>397.7517393246783</v>
+        <v>552.3735683412849</v>
       </c>
       <c r="C16" t="n">
-        <v>397.7517393246783</v>
+        <v>383.437385413378</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>383.437385413378</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>383.437385413378</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>383.437385413378</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>215.2620637331986</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5466,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1275.130855347408</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>985.7136853104475</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X16" t="n">
-        <v>800.1927832984481</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y16" t="n">
-        <v>579.400204154918</v>
+        <v>734.0220331715246</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5542,22 +5542,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>3254.09465985463</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>3583.957287518663</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4253.421048821322</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>675.7175987609741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1185.927347941465</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1185.927347941465</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>896.5101779045042</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>896.5101779045042</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>675.7175987609741</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5743,28 +5743,28 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3867.997941244695</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3867.997941244695</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3867.997941244695</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3867.997941244695</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>4637.069157803799</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>4637.069157803799</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>4606.197241323203</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>4316.780071286243</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>4088.790520388225</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>3867.997941244695</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,28 +5974,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>326.2492756170072</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>940.1463453738959</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>713.5778697504956</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C25" t="n">
-        <v>544.6416868225887</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D25" t="n">
-        <v>394.5250474102529</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V25" t="n">
-        <v>1162.359999792043</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W25" t="n">
-        <v>1162.359999792043</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="X25" t="n">
-        <v>934.3704488940257</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y25" t="n">
-        <v>713.5778697504956</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,10 +6214,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,13 +6226,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6244,10 +6244,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6305,22 +6305,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3722.451530711168</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C28" t="n">
-        <v>3722.451530711168</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D28" t="n">
-        <v>3572.334891298832</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>3572.334891298832</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>3572.334891298832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>4749.779469576118</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>4749.779469576118</v>
+        <v>1147.405907916959</v>
       </c>
       <c r="U28" t="n">
-        <v>4460.650830789676</v>
+        <v>1147.405907916959</v>
       </c>
       <c r="V28" t="n">
-        <v>4460.650830789676</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="W28" t="n">
-        <v>4171.233660752715</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="X28" t="n">
-        <v>3943.244109854698</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y28" t="n">
-        <v>3722.451530711168</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="29">
@@ -6454,19 +6454,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6542,28 +6542,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>553.0935746802517</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1321.461721072713</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>1209.787631771461</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>981.7980808734433</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,34 +6679,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6724,7 +6724,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2103.010087623274</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>524.5778132641556</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1223.632999029373</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1223.632999029373</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1223.632999029373</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>1223.632999029373</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>934.2158289924126</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>706.2262780943953</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>706.2262780943953</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6934,55 +6934,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1427.741252113634</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1757.603879777666</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3688.559621648812</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>3688.559621648812</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3688.559621648812</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3540.646528066419</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3540.646528066419</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4749.779469576119</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4749.779469576119</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>4460.650830789677</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>4205.96634258379</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>3916.549172546829</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X37" t="n">
-        <v>3688.559621648812</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y37" t="n">
-        <v>3688.559621648812</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7189,31 +7189,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>943.0172707642137</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1711.385417156675</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>564.1830073829216</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C40" t="n">
-        <v>395.2468244550147</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1142.728816206324</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U40" t="n">
-        <v>853.6001774198821</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V40" t="n">
-        <v>853.6001774198821</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W40" t="n">
-        <v>564.1830073829216</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X40" t="n">
-        <v>564.1830073829216</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y40" t="n">
-        <v>564.1830073829216</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="41">
@@ -7390,25 +7390,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7426,7 +7426,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899127</v>
@@ -7435,25 +7435,25 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2525.058920465859</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>2771.824048372323</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3540.192194764784</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>4289.159124556163</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4568.69918977486</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>861.4909633328887</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="C43" t="n">
-        <v>692.5547804049818</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="D43" t="n">
-        <v>542.438140992646</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="E43" t="n">
-        <v>394.5250474102529</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U43" t="n">
-        <v>1298.996260473455</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V43" t="n">
-        <v>1089.480514230906</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W43" t="n">
-        <v>1089.480514230906</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X43" t="n">
-        <v>861.4909633328887</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="Y43" t="n">
-        <v>861.4909633328887</v>
+        <v>130.9054447954967</v>
       </c>
     </row>
     <row r="44">
@@ -7660,16 +7660,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,25 +7730,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1333.825180851559</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1663.687808515591</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1943.227873734289</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609669</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="V46" t="n">
-        <v>731.31772835508</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W46" t="n">
-        <v>731.31772835508</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X46" t="n">
-        <v>731.31772835508</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>510.5251492115499</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8300,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.421860962789</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451766</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>253.7371603504748</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>176.7176547498451</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>38.86002301949898</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>18.73797368291349</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10442,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>230.7151863772038</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711655</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>297.2466435761028</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,10 +10907,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>22.04402060665512</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11077,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714816</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3376789165111</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,10 +11305,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119823</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11378,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>171.2966883299254</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,16 +23421,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>31.28734144313719</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>36.51615797628583</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>32.0493058173525</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23706,19 +23706,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>42.04396239715777</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>197.9258800666934</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>221.5744460080387</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>226.8320976530234</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>209.6121546348235</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>54.44586605504259</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>181.4374644312508</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24843,19 +24843,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>98.72735435169555</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25095,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>35.35472357415202</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>85.81734565513274</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>14.45548819888947</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>176.8071436377221</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>140.3375291694989</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25788,22 +25788,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>112.0695782210724</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>44.71705454370442</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.00479402229121</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,19 +26073,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>2.963168004552585</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>791022.4183502591</v>
+        <v>791022.418350259</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>791022.418350259</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>791022.4183502591</v>
+        <v>791022.418350259</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>791022.4183502592</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>791022.418350259</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>791022.4183502588</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>791022.418350259</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448196</v>
+      </c>
+      <c r="C2" t="n">
+        <v>636307.3716448196</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448197</v>
       </c>
-      <c r="C2" t="n">
-        <v>636307.37164482</v>
-      </c>
-      <c r="D2" t="n">
-        <v>636307.3716448194</v>
-      </c>
       <c r="E2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="F2" t="n">
         <v>606095.0425934484</v>
       </c>
       <c r="G2" t="n">
-        <v>606095.0425934482</v>
+        <v>606095.0425934488</v>
       </c>
       <c r="H2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="I2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="J2" t="n">
         <v>606095.0425934487</v>
       </c>
       <c r="K2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="L2" t="n">
+        <v>606095.0425934487</v>
+      </c>
+      <c r="M2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="N2" t="n">
         <v>606095.0425934483</v>
       </c>
-      <c r="L2" t="n">
-        <v>606095.0425934484</v>
-      </c>
-      <c r="M2" t="n">
-        <v>606095.0425934483</v>
-      </c>
-      <c r="N2" t="n">
-        <v>606095.0425934485</v>
-      </c>
       <c r="O2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934488</v>
       </c>
       <c r="P2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934488</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218263</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
@@ -26456,10 +26456,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26475,28 +26475,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340944</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26505,10 +26505,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-211010.3629549604</v>
+        <v>-211010.3629549605</v>
       </c>
       <c r="C6" t="n">
-        <v>378957.5162595843</v>
+        <v>378957.516259584</v>
       </c>
       <c r="D6" t="n">
-        <v>378957.5162595838</v>
+        <v>378957.5162595841</v>
       </c>
       <c r="E6" t="n">
-        <v>-40355.86538446631</v>
+        <v>-41330.45664418867</v>
       </c>
       <c r="F6" t="n">
-        <v>484804.1710924294</v>
+        <v>483829.5798327078</v>
       </c>
       <c r="G6" t="n">
-        <v>484804.1710924292</v>
+        <v>483829.5798327082</v>
       </c>
       <c r="H6" t="n">
-        <v>484804.1710924294</v>
+        <v>483829.579832708</v>
       </c>
       <c r="I6" t="n">
-        <v>484804.1710924294</v>
+        <v>483829.579832708</v>
       </c>
       <c r="J6" t="n">
-        <v>308380.9518998368</v>
+        <v>307406.3606401151</v>
       </c>
       <c r="K6" t="n">
-        <v>484804.1710924294</v>
+        <v>483829.579832708</v>
       </c>
       <c r="L6" t="n">
-        <v>484804.1710924294</v>
+        <v>483829.579832708</v>
       </c>
       <c r="M6" t="n">
-        <v>350003.1558585921</v>
+        <v>349028.5645988707</v>
       </c>
       <c r="N6" t="n">
-        <v>484804.1710924296</v>
+        <v>483829.5798327078</v>
       </c>
       <c r="O6" t="n">
-        <v>484804.1710924297</v>
+        <v>483829.5798327082</v>
       </c>
       <c r="P6" t="n">
-        <v>484804.1710924295</v>
+        <v>483829.5798327082</v>
       </c>
     </row>
   </sheetData>
@@ -26743,28 +26743,28 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26773,13 +26773,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.926370499018</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>173.9683590569447</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>15.15363281057798</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27435,13 +27435,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27548,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>157.5193616454013</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27593,16 +27593,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>375.9469818809424</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>71.25233896023983</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>8.811287602451927</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>14.59587156758288</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27827,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>295.9929478131361</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>98.95375469339575</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>14.59587156758302</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.6385035656855</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,40 +31521,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31931,10 +31931,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,16 +35175,16 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530451</v>
@@ -35193,7 +35193,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355132</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>460.8305752819994</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>564.1615374009399</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>487.1420318003113</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>564.1615374009399</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>189.4354616074382</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>670.927063341192</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>267.9956786389378</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37162,13 +37162,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>437.8086013087286</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>579.6103458172109</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>271.3017255626795</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081101</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>378.3901032614501</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2727213.894652746</v>
+        <v>2732153.157501777</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>283.2502426857015</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>39.32476976423373</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>9.790440613649634</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>42.93165166918606</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>5.983388191319379</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -913,7 +913,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>104.0001894004429</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.60408762095413</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>13.96214174992418</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1150,7 +1150,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>96.36163317610307</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481175</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>270.7773459850733</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.52687838733131</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>146.278729911946</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>250.0068403603052</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>116.8645225501836</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>237.6821551249385</v>
       </c>
       <c r="W25" t="n">
-        <v>76.91084370176748</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>103.2221157302693</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>40.11009662713845</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>204.1291651532053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3720,13 +3720,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>146.1854691670921</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>158.3518819036634</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>33.35146980185879</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>58.4016882597743</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>283.2741843940248</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1763.586886263858</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.624369323446</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1304.217875522719</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>918.4296229244749</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>507.4437181348673</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>493.5203140734582</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2657.42710135738</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2481.24961367155</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2481.24961367155</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2481.24961367155</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2150.18672632798</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2150.18672632798</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2150.18672632798</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>2150.18672632798</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>63.8323157735459</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>808.0839286340174</v>
+        <v>907.090798542223</v>
       </c>
       <c r="C5" t="n">
-        <v>439.1214116936057</v>
+        <v>538.1282816018113</v>
       </c>
       <c r="D5" t="n">
-        <v>80.85571308685519</v>
+        <v>179.8625829950608</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>179.8625829950608</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>172.9170822458573</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>158.9936781844482</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4600,19 +4600,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.683768698139</v>
+        <v>1293.690638606345</v>
       </c>
     </row>
     <row r="6">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C7" t="n">
-        <v>529.7758821321493</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>379.6592427198135</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>231.7461491374204</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>84.85620163951003</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>84.85620163951003</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>84.85620163951003</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>84.85620163951003</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>714.0258107216623</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1320.241224882541</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>961.9755262757901</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>576.1872736775458</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177352</v>
+        <v>165.2013688879383</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036442</v>
+        <v>151.2779648265292</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4819,37 +4819,37 @@
         <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642688</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548714</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548714</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548714</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548714</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548714</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548714</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>713.4553696737762</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>544.5191867458693</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>394.4025473335336</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511404</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.4553696737762</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5038,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5062,13 +5062,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5229,22 +5229,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706318</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W13" t="n">
-        <v>278.8655562905255</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X13" t="n">
-        <v>278.8655562905255</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5302,7 +5302,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5354,7 +5354,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
@@ -5366,7 +5366,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
         <v>1558.376451307619</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>552.3735683412849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>383.437385413378</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>383.437385413378</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>383.437385413378</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>383.437385413378</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>215.2620637331986</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5466,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>954.8146123150548</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>954.8146123150548</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>734.0220331715246</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,13 +5527,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5542,22 +5542,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5603,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5731,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5740,61 +5740,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155885</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5937,16 +5937,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
         <v>325.2066423583032</v>
@@ -5989,7 +5989,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514082</v>
@@ -6001,16 +6001,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
         <v>97.21709146028584</v>
@@ -6177,22 +6177,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>1044.311772267568</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W25" t="n">
-        <v>966.6240513566914</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>966.6240513566914</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>745.8314722131613</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6208,31 +6208,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6247,7 +6247,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>711.072954880832</v>
+        <v>782.4872769945461</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529251</v>
+        <v>613.5510940666392</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>463.4344546543034</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>463.4344546543034</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>463.4344546543034</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6414,22 +6414,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1147.405907916959</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>1147.405907916959</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V28" t="n">
-        <v>892.7214197110717</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W28" t="n">
-        <v>892.7214197110717</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X28" t="n">
-        <v>892.7214197110717</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="Y28" t="n">
-        <v>892.7214197110717</v>
+        <v>964.1357418247858</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6451,64 +6451,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6654,19 +6654,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6694,7 +6694,7 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
@@ -6703,25 +6703,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6940,16 +6940,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7122,22 +7122,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>531.3977182706318</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>303.4081673726145</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
         <v>97.21709146028584</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7174,13 +7174,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>675.0071030383442</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>675.0071030383442</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>527.3450129705744</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,34 +7390,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.9054447954967</v>
+        <v>821.846685011157</v>
       </c>
       <c r="C43" t="n">
-        <v>130.9054447954967</v>
+        <v>821.846685011157</v>
       </c>
       <c r="D43" t="n">
-        <v>130.9054447954967</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E43" t="n">
-        <v>130.9054447954967</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>675.0071030383442</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324574</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W43" t="n">
-        <v>130.9054447954967</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X43" t="n">
-        <v>130.9054447954967</v>
+        <v>981.7980808734433</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.9054447954967</v>
+        <v>981.7980808734433</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>789.0753054710162</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>789.0753054710162</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>499.6581354340557</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451761</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451766</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8944,13 +8944,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>75.26883114644326</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>36.51615797628583</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>32.0493058173525</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23706,10 +23706,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24417,19 +24417,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>14.4554881988895</v>
       </c>
       <c r="W25" t="n">
-        <v>209.6121546348235</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>63.27145273310833</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>181.4374644312508</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>14.45548819888947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>140.3375291694989</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>21.48009827827389</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>112.0695782210724</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,22 +26073,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>2.963168004552585</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>791022.418350259</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>791022.418350259</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>791022.418350259</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
     <row r="10">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448199</v>
+      </c>
+      <c r="C2" t="n">
+        <v>636307.3716448199</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448196</v>
       </c>
-      <c r="C2" t="n">
-        <v>636307.3716448196</v>
-      </c>
-      <c r="D2" t="n">
-        <v>636307.3716448197</v>
-      </c>
       <c r="E2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="F2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="G2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="H2" t="n">
         <v>606095.0425934484</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>606095.0425934484</v>
       </c>
-      <c r="G2" t="n">
-        <v>606095.0425934488</v>
-      </c>
-      <c r="H2" t="n">
-        <v>606095.0425934487</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>606095.0425934485</v>
-      </c>
-      <c r="J2" t="n">
-        <v>606095.0425934487</v>
       </c>
       <c r="K2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="L2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="M2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="N2" t="n">
         <v>606095.0425934487</v>
       </c>
-      <c r="M2" t="n">
-        <v>606095.0425934485</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>606095.0425934483</v>
       </c>
-      <c r="O2" t="n">
-        <v>606095.0425934488</v>
-      </c>
       <c r="P2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934482</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218263</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
@@ -26444,10 +26444,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
@@ -26475,25 +26475,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340944</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-211010.3629549605</v>
+        <v>-211010.3629549602</v>
       </c>
       <c r="C6" t="n">
+        <v>378957.5162595842</v>
+      </c>
+      <c r="D6" t="n">
         <v>378957.516259584</v>
       </c>
-      <c r="D6" t="n">
-        <v>378957.5162595841</v>
-      </c>
       <c r="E6" t="n">
-        <v>-41330.45664418867</v>
+        <v>-40453.32451043872</v>
       </c>
       <c r="F6" t="n">
-        <v>483829.5798327078</v>
+        <v>484706.7119664574</v>
       </c>
       <c r="G6" t="n">
-        <v>483829.5798327082</v>
+        <v>484706.7119664575</v>
       </c>
       <c r="H6" t="n">
-        <v>483829.579832708</v>
+        <v>484706.7119664573</v>
       </c>
       <c r="I6" t="n">
-        <v>483829.579832708</v>
+        <v>484706.7119664573</v>
       </c>
       <c r="J6" t="n">
-        <v>307406.3606401151</v>
+        <v>308283.4927738645</v>
       </c>
       <c r="K6" t="n">
-        <v>483829.579832708</v>
+        <v>484706.7119664574</v>
       </c>
       <c r="L6" t="n">
-        <v>483829.579832708</v>
+        <v>484706.7119664574</v>
       </c>
       <c r="M6" t="n">
-        <v>349028.5645988707</v>
+        <v>349905.6967326202</v>
       </c>
       <c r="N6" t="n">
-        <v>483829.5798327078</v>
+        <v>484706.7119664575</v>
       </c>
       <c r="O6" t="n">
-        <v>483829.5798327082</v>
+        <v>484706.7119664573</v>
       </c>
       <c r="P6" t="n">
-        <v>483829.5798327082</v>
+        <v>484706.711966457</v>
       </c>
     </row>
   </sheetData>
@@ -26743,31 +26743,31 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541003</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>40.67253007865565</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>15.15363281057798</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27548,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>157.5193616454013</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27584,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>169.2138872808328</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27596,10 +27596,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>375.9469818809424</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>219.9225833639142</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27672,13 +27672,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>14.59587156758288</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27827,10 +27827,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>211.0729637081601</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>227.5611395882541</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>98.95375469339575</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.59587156758302</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>158.8578157762263</v>
       </c>
     </row>
     <row r="11">
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,40 +31521,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,7 +35029,7 @@
         <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,16 +35175,16 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530451</v>
@@ -35193,7 +35193,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355132</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35664,13 +35664,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
